--- a/Resource/excel/1000-框架-掉落数据.xlsx
+++ b/Resource/excel/1000-框架-掉落数据.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="26310" windowHeight="13065"/>
+    <workbookView windowWidth="26310" windowHeight="13140"/>
   </bookViews>
   <sheets>
     <sheet name="dropdata" sheetId="1" r:id="rId1"/>
@@ -45,7 +45,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="C4" authorId="0">
+    <comment ref="D4" authorId="0">
       <text>
         <r>
           <rPr>
@@ -70,29 +70,6 @@
 money 金币
 exp 英雄经验
 </t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="D4" authorId="0">
-      <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <rFont val="宋体"/>
-            <charset val="134"/>
-          </rPr>
-          <t>PCC:</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <rFont val="宋体"/>
-            <charset val="134"/>
-          </rPr>
-          <t xml:space="preserve">
-如果是道具 或者其他需要id的属性
-, 填入该id</t>
         </r>
       </text>
     </comment>
@@ -137,6 +114,29 @@
             <charset val="134"/>
           </rPr>
           <t xml:space="preserve">
+如果是道具 或者其他需要id的属性
+, 填入该id</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="G4" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <rFont val="宋体"/>
+            <charset val="134"/>
+          </rPr>
+          <t>PCC:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <rFont val="宋体"/>
+            <charset val="134"/>
+          </rPr>
+          <t xml:space="preserve">
 该项的权重值, 所有的权重值加起来算概率</t>
         </r>
       </text>
@@ -146,7 +146,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="18">
   <si>
     <t>#dropdata</t>
   </si>
@@ -157,15 +157,18 @@
     <t>掉落数据组id</t>
   </si>
   <si>
+    <t>掉落逻辑名</t>
+  </si>
+  <si>
     <t>掉落属性名</t>
   </si>
   <si>
+    <t>掉落的数值</t>
+  </si>
+  <si>
     <t>掉落的id</t>
   </si>
   <si>
-    <t>掉落的数值</t>
-  </si>
-  <si>
     <t>概率/权重</t>
   </si>
   <si>
@@ -175,16 +178,22 @@
     <t>Id(int)</t>
   </si>
   <si>
-    <t>DropName(string)</t>
+    <t>LogicName(string)</t>
+  </si>
+  <si>
+    <t>DataName(string)</t>
+  </si>
+  <si>
+    <t>DropValue(string)</t>
   </si>
   <si>
     <t>DropKey(int)</t>
   </si>
   <si>
-    <t>DropValue(string)</t>
-  </si>
-  <si>
     <t>Weight(int)</t>
+  </si>
+  <si>
+    <t>data</t>
   </si>
   <si>
     <t>money</t>
@@ -198,8 +207,8 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
@@ -236,6 +245,126 @@
       <charset val="134"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="13"/>
       <color theme="3"/>
@@ -244,37 +373,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="15"/>
       <color theme="3"/>
@@ -283,20 +381,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="18"/>
       <color theme="3"/>
@@ -306,82 +390,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
       <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -407,187 +416,187 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFF2F2F2"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFCC99"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -603,9 +612,65 @@
     <border>
       <left/>
       <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
       <top/>
-      <bottom style="medium">
-        <color theme="4"/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -636,65 +701,9 @@
     <border>
       <left/>
       <right/>
-      <top style="thin">
+      <top/>
+      <bottom style="medium">
         <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -703,152 +712,152 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="42" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="3" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="16" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="42" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="20" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="9" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="11" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="2" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="23" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="10" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="10" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="16" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -856,12 +865,18 @@
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+      <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+      <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1281,31 +1296,32 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:H19"/>
+  <dimension ref="A1:I19"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="E10" sqref="E10"/>
+      <selection pane="bottomLeft" activeCell="F11" sqref="F11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" outlineLevelCol="7"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
   <cols>
     <col min="1" max="1" width="21.5" style="4" customWidth="1"/>
     <col min="2" max="2" width="10.375" style="4" customWidth="1"/>
-    <col min="3" max="3" width="16.125" style="4" customWidth="1"/>
-    <col min="4" max="4" width="11.5" style="4" customWidth="1"/>
+    <col min="3" max="3" width="16.375" style="4" customWidth="1"/>
+    <col min="4" max="4" width="16.125" style="4" customWidth="1"/>
     <col min="5" max="5" width="16" style="4" customWidth="1"/>
-    <col min="6" max="7" width="18.25" style="4" customWidth="1"/>
-    <col min="8" max="8" width="11.5" style="4" customWidth="1"/>
-    <col min="9" max="10" width="17.125" style="4" customWidth="1"/>
-    <col min="11" max="11" width="19.125" style="4" customWidth="1"/>
-    <col min="12" max="12" width="17.125" style="4" customWidth="1"/>
-    <col min="13" max="13" width="8.375" style="4" customWidth="1"/>
-    <col min="14" max="14" width="16.25" style="4" customWidth="1"/>
-    <col min="15" max="15" width="19.625" style="4" customWidth="1"/>
-    <col min="16" max="16" width="16" style="4" customWidth="1"/>
-    <col min="17" max="16384" width="9" style="4"/>
+    <col min="6" max="6" width="11.5" style="4" customWidth="1"/>
+    <col min="7" max="8" width="18.25" style="4" customWidth="1"/>
+    <col min="9" max="9" width="11.5" style="4" customWidth="1"/>
+    <col min="10" max="11" width="17.125" style="4" customWidth="1"/>
+    <col min="12" max="12" width="19.125" style="4" customWidth="1"/>
+    <col min="13" max="13" width="17.125" style="4" customWidth="1"/>
+    <col min="14" max="14" width="8.375" style="4" customWidth="1"/>
+    <col min="15" max="15" width="16.25" style="4" customWidth="1"/>
+    <col min="16" max="16" width="19.625" style="4" customWidth="1"/>
+    <col min="17" max="17" width="16" style="4" customWidth="1"/>
+    <col min="18" max="16384" width="9" style="4"/>
   </cols>
   <sheetData>
     <row r="1" s="1" customFormat="1" spans="2:2">
@@ -1313,7 +1329,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="2" s="2" customFormat="1" spans="1:6">
+    <row r="2" s="2" customFormat="1" spans="1:7">
       <c r="A2" s="2" t="s">
         <v>1</v>
       </c>
@@ -1332,8 +1348,11 @@
       <c r="F2" s="2" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="3" s="2" customFormat="1" spans="1:6">
+      <c r="G2" s="2" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="3" s="2" customFormat="1" spans="1:7">
       <c r="A3" s="2">
         <v>0</v>
       </c>
@@ -1352,99 +1371,125 @@
       <c r="F3" s="2">
         <v>1</v>
       </c>
-    </row>
-    <row r="4" s="3" customFormat="1" spans="1:6">
+      <c r="G3" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" s="3" customFormat="1" spans="1:7">
       <c r="A4" s="3" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D4" s="3" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E4" s="3" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F4" s="3" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="5" spans="1:8">
+        <v>13</v>
+      </c>
+      <c r="G4" s="3" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9">
       <c r="A5" s="1"/>
       <c r="B5" s="1">
         <v>1</v>
       </c>
-      <c r="C5" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="D5"/>
+      <c r="C5" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="D5" s="4" t="s">
+        <v>16</v>
+      </c>
       <c r="E5" s="4">
         <v>100</v>
       </c>
-      <c r="F5" s="4">
+      <c r="F5" s="5">
+        <v>0</v>
+      </c>
+      <c r="G5" s="4">
         <v>100</v>
       </c>
-      <c r="G5"/>
-      <c r="H5"/>
-    </row>
-    <row r="6" spans="1:6">
+      <c r="H5" s="5"/>
+      <c r="I5" s="5"/>
+    </row>
+    <row r="6" spans="1:7">
       <c r="A6" s="1"/>
       <c r="B6" s="1">
         <v>2</v>
       </c>
-      <c r="C6" s="4" t="s">
-        <v>13</v>
+      <c r="C6" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="D6" s="4" t="s">
+        <v>16</v>
       </c>
       <c r="E6" s="4">
         <v>200</v>
       </c>
       <c r="F6" s="4">
+        <v>0</v>
+      </c>
+      <c r="G6" s="4">
         <v>100</v>
       </c>
     </row>
-    <row r="7" spans="1:8">
+    <row r="7" spans="1:9">
       <c r="A7" s="1"/>
       <c r="B7" s="1">
         <v>3</v>
       </c>
-      <c r="C7" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="D7"/>
+      <c r="C7" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="D7" s="4" t="s">
+        <v>16</v>
+      </c>
       <c r="E7" s="4" t="s">
-        <v>14</v>
-      </c>
-      <c r="F7" s="4">
+        <v>17</v>
+      </c>
+      <c r="F7" s="5">
+        <v>0</v>
+      </c>
+      <c r="G7" s="4">
         <v>100</v>
       </c>
-      <c r="G7"/>
-      <c r="H7"/>
-    </row>
-    <row r="8" spans="1:8">
+      <c r="H7" s="5"/>
+      <c r="I7" s="5"/>
+    </row>
+    <row r="8" spans="1:9">
       <c r="A8" s="1"/>
       <c r="B8" s="1"/>
-      <c r="C8"/>
-      <c r="D8"/>
-      <c r="E8"/>
-      <c r="F8"/>
-      <c r="G8"/>
-      <c r="H8"/>
-    </row>
-    <row r="9" spans="1:2">
+      <c r="C8" s="6"/>
+      <c r="D8" s="5"/>
+      <c r="E8" s="5"/>
+      <c r="F8" s="5"/>
+      <c r="G8" s="5"/>
+      <c r="H8" s="5"/>
+      <c r="I8" s="5"/>
+    </row>
+    <row r="9" spans="1:3">
       <c r="A9" s="1"/>
       <c r="B9" s="1"/>
-    </row>
-    <row r="10" spans="1:2">
+      <c r="C9" s="1"/>
+    </row>
+    <row r="10" spans="1:3">
       <c r="A10" s="1"/>
       <c r="B10" s="1"/>
-    </row>
-    <row r="11" spans="1:2">
+      <c r="C10" s="1"/>
+    </row>
+    <row r="11" spans="1:3">
       <c r="A11" s="1"/>
       <c r="B11" s="1"/>
+      <c r="C11" s="1"/>
     </row>
     <row r="12" spans="1:1">
       <c r="A12" s="1"/>
